--- a/P80/BP8/Rev1/Derating.xlsx
+++ b/P80/BP8/Rev1/Derating.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mogn\Documents\GitHub\Hardware\nanopower\P80\BalancedBatteryPack\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mogn\Documents\GitHub\Hardware\nanopower\P80\BP8\Rev1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="327">
   <si>
     <t>Comment</t>
   </si>
@@ -993,6 +993,18 @@
   </si>
   <si>
     <t>R4, R112, R113, R119, R120, R122, R124, R128, R129, R133, R135, R141, R142, R147, R178, R181, R185, R193, R194, R195, R196</t>
+  </si>
+  <si>
+    <t>Critical?</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Low</t>
   </si>
 </sst>
 </file>
@@ -1025,7 +1037,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1047,6 +1059,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1091,7 +1115,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1113,6 +1137,8 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1427,10 +1453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H71"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="W16" sqref="W16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1444,7 +1470,7 @@
     <col min="7" max="7" width="35.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1469,8 +1495,11 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I1" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>59</v>
       </c>
@@ -1493,8 +1522,11 @@
         <v>193</v>
       </c>
       <c r="H2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I2" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>60</v>
       </c>
@@ -1517,8 +1549,11 @@
         <v>198</v>
       </c>
       <c r="H3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I3" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>61</v>
       </c>
@@ -1541,8 +1576,11 @@
         <v>198</v>
       </c>
       <c r="H4" s="5"/>
-    </row>
-    <row r="5" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I4" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>62</v>
       </c>
@@ -1565,8 +1603,11 @@
         <v>198</v>
       </c>
       <c r="H5" s="5"/>
-    </row>
-    <row r="6" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I5" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>59</v>
       </c>
@@ -1589,8 +1630,11 @@
         <v>197</v>
       </c>
       <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I6" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>63</v>
       </c>
@@ -1613,8 +1657,11 @@
         <v>197</v>
       </c>
       <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I7" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>64</v>
       </c>
@@ -1637,8 +1684,11 @@
         <v>198</v>
       </c>
       <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I8" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>65</v>
       </c>
@@ -1661,8 +1711,11 @@
         <v>197</v>
       </c>
       <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I9" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>296</v>
       </c>
@@ -1685,8 +1738,11 @@
         <v>197</v>
       </c>
       <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I10" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>66</v>
       </c>
@@ -1709,8 +1765,11 @@
         <v>198</v>
       </c>
       <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I11" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>317</v>
       </c>
@@ -1733,8 +1792,11 @@
         <v>320</v>
       </c>
       <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I12" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>67</v>
       </c>
@@ -1757,8 +1819,11 @@
         <v>202</v>
       </c>
       <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I13" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>68</v>
       </c>
@@ -1781,8 +1846,11 @@
         <v>204</v>
       </c>
       <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I14" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>69</v>
       </c>
@@ -1805,8 +1873,11 @@
         <v>205</v>
       </c>
       <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I15" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>70</v>
       </c>
@@ -1829,8 +1900,11 @@
         <v>207</v>
       </c>
       <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I16" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>71</v>
       </c>
@@ -1853,8 +1927,11 @@
         <v>207</v>
       </c>
       <c r="H17" s="5"/>
-    </row>
-    <row r="18" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I17" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>72</v>
       </c>
@@ -1877,8 +1954,11 @@
         <v>207</v>
       </c>
       <c r="H18" s="5"/>
-    </row>
-    <row r="19" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I18" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>73</v>
       </c>
@@ -1901,8 +1981,11 @@
         <v>210</v>
       </c>
       <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I19" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>313</v>
       </c>
@@ -1925,8 +2008,11 @@
         <v>213</v>
       </c>
       <c r="H20" s="5"/>
-    </row>
-    <row r="21" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I20" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>312</v>
       </c>
@@ -1949,8 +2035,11 @@
         <v>216</v>
       </c>
       <c r="H21" s="5"/>
-    </row>
-    <row r="22" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I21" s="10" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>74</v>
       </c>
@@ -1973,8 +2062,11 @@
         <v>216</v>
       </c>
       <c r="H22" s="5"/>
-    </row>
-    <row r="23" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I22" s="10" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>75</v>
       </c>
@@ -1997,8 +2089,11 @@
         <v>215</v>
       </c>
       <c r="H23" s="5"/>
-    </row>
-    <row r="24" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I23" s="10" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>76</v>
       </c>
@@ -2021,8 +2116,11 @@
         <v>215</v>
       </c>
       <c r="H24" s="5"/>
-    </row>
-    <row r="25" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I24" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>77</v>
       </c>
@@ -2045,8 +2143,11 @@
         <v>223</v>
       </c>
       <c r="H25" s="5"/>
-    </row>
-    <row r="26" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I25" s="10" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>78</v>
       </c>
@@ -2069,8 +2170,11 @@
         <v>314</v>
       </c>
       <c r="H26" s="5"/>
-    </row>
-    <row r="27" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I26" s="10" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>79</v>
       </c>
@@ -2093,8 +2197,11 @@
         <v>224</v>
       </c>
       <c r="H27" s="5"/>
-    </row>
-    <row r="28" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I27" s="10" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>80</v>
       </c>
@@ -2117,8 +2224,11 @@
         <v>222</v>
       </c>
       <c r="H28" s="5"/>
-    </row>
-    <row r="29" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I28" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>81</v>
       </c>
@@ -2141,8 +2251,11 @@
         <v>227</v>
       </c>
       <c r="H29" s="5"/>
-    </row>
-    <row r="30" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I29" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>82</v>
       </c>
@@ -2165,8 +2278,11 @@
         <v>228</v>
       </c>
       <c r="H30" s="5"/>
-    </row>
-    <row r="31" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I30" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>83</v>
       </c>
@@ -2189,8 +2305,11 @@
         <v>230</v>
       </c>
       <c r="H31" s="5"/>
-    </row>
-    <row r="32" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I31" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>84</v>
       </c>
@@ -2213,8 +2332,11 @@
         <v>231</v>
       </c>
       <c r="H32" s="5"/>
-    </row>
-    <row r="33" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I32" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>85</v>
       </c>
@@ -2237,8 +2359,11 @@
         <v>233</v>
       </c>
       <c r="H33" s="5"/>
-    </row>
-    <row r="34" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I33" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>86</v>
       </c>
@@ -2261,8 +2386,11 @@
         <v>234</v>
       </c>
       <c r="H34" s="5"/>
-    </row>
-    <row r="35" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I34" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>91</v>
       </c>
@@ -2285,8 +2413,11 @@
         <v>240</v>
       </c>
       <c r="H35" s="5"/>
-    </row>
-    <row r="36" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I35" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>87</v>
       </c>
@@ -2309,8 +2440,11 @@
         <v>235</v>
       </c>
       <c r="H36" s="5"/>
-    </row>
-    <row r="37" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I36" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>88</v>
       </c>
@@ -2333,8 +2467,11 @@
         <v>236</v>
       </c>
       <c r="H37" s="5"/>
-    </row>
-    <row r="38" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I37" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>89</v>
       </c>
@@ -2357,8 +2494,11 @@
         <v>237</v>
       </c>
       <c r="H38" s="5"/>
-    </row>
-    <row r="39" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I38" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>90</v>
       </c>
@@ -2381,8 +2521,11 @@
         <v>238</v>
       </c>
       <c r="H39" s="5"/>
-    </row>
-    <row r="40" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I39" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>83</v>
       </c>
@@ -2405,8 +2548,11 @@
         <v>239</v>
       </c>
       <c r="H40" s="5"/>
-    </row>
-    <row r="41" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I40" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>92</v>
       </c>
@@ -2429,8 +2575,11 @@
         <v>241</v>
       </c>
       <c r="H41" s="5"/>
-    </row>
-    <row r="42" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I41" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>93</v>
       </c>
@@ -2453,8 +2602,11 @@
         <v>242</v>
       </c>
       <c r="H42" s="5"/>
-    </row>
-    <row r="43" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I42" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>94</v>
       </c>
@@ -2477,8 +2629,11 @@
         <v>243</v>
       </c>
       <c r="H43" s="5"/>
-    </row>
-    <row r="44" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I43" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>96</v>
       </c>
@@ -2499,8 +2654,11 @@
         <v>244</v>
       </c>
       <c r="H44" s="5"/>
-    </row>
-    <row r="45" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I44" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>97</v>
       </c>
@@ -2523,8 +2681,11 @@
         <v>245</v>
       </c>
       <c r="H45" s="5"/>
-    </row>
-    <row r="46" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I45" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>98</v>
       </c>
@@ -2547,8 +2708,11 @@
         <v>246</v>
       </c>
       <c r="H46" s="5"/>
-    </row>
-    <row r="47" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I46" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>99</v>
       </c>
@@ -2571,8 +2735,11 @@
         <v>247</v>
       </c>
       <c r="H47" s="5"/>
-    </row>
-    <row r="48" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I47" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>100</v>
       </c>
@@ -2595,8 +2762,11 @@
         <v>248</v>
       </c>
       <c r="H48" s="5"/>
-    </row>
-    <row r="49" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I48" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>101</v>
       </c>
@@ -2619,8 +2789,11 @@
         <v>248</v>
       </c>
       <c r="H49" s="5"/>
-    </row>
-    <row r="50" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I49" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>102</v>
       </c>
@@ -2643,8 +2816,11 @@
         <v>248</v>
       </c>
       <c r="H50" s="5"/>
-    </row>
-    <row r="51" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I50" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>95</v>
       </c>
@@ -2667,8 +2843,11 @@
         <v>249</v>
       </c>
       <c r="H51" s="5"/>
-    </row>
-    <row r="52" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I51" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>103</v>
       </c>
@@ -2691,8 +2870,11 @@
         <v>250</v>
       </c>
       <c r="H52" s="5"/>
-    </row>
-    <row r="53" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I52" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>104</v>
       </c>
@@ -2715,8 +2897,11 @@
         <v>253</v>
       </c>
       <c r="H53" s="5"/>
-    </row>
-    <row r="54" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I53" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>105</v>
       </c>
@@ -2739,8 +2924,11 @@
         <v>251</v>
       </c>
       <c r="H54" s="5"/>
-    </row>
-    <row r="55" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I54" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>106</v>
       </c>
@@ -2763,8 +2951,11 @@
         <v>257</v>
       </c>
       <c r="H55" s="5"/>
-    </row>
-    <row r="56" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I55" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>107</v>
       </c>
@@ -2787,8 +2978,11 @@
         <v>258</v>
       </c>
       <c r="H56" s="5"/>
-    </row>
-    <row r="57" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I56" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>108</v>
       </c>
@@ -2811,8 +3005,11 @@
         <v>252</v>
       </c>
       <c r="H57" s="5"/>
-    </row>
-    <row r="58" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I57" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>109</v>
       </c>
@@ -2835,8 +3032,11 @@
         <v>260</v>
       </c>
       <c r="H58" s="5"/>
-    </row>
-    <row r="59" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I58" s="10" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>110</v>
       </c>
@@ -2859,8 +3059,11 @@
         <v>266</v>
       </c>
       <c r="H59" s="5"/>
-    </row>
-    <row r="60" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I59" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>111</v>
       </c>
@@ -2883,8 +3086,11 @@
         <v>261</v>
       </c>
       <c r="H60" s="5"/>
-    </row>
-    <row r="61" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I60" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>112</v>
       </c>
@@ -2907,8 +3113,11 @@
         <v>263</v>
       </c>
       <c r="H61" s="5"/>
-    </row>
-    <row r="62" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I61" s="10" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>113</v>
       </c>
@@ -2931,8 +3140,11 @@
         <v>264</v>
       </c>
       <c r="H62" s="5"/>
-    </row>
-    <row r="63" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I62" s="10" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>114</v>
       </c>
@@ -2955,8 +3167,11 @@
         <v>267</v>
       </c>
       <c r="H63" s="5"/>
-    </row>
-    <row r="64" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I63" s="10" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>115</v>
       </c>
@@ -2979,8 +3194,11 @@
         <v>268</v>
       </c>
       <c r="H64" s="5"/>
-    </row>
-    <row r="65" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I64" s="10" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>116</v>
       </c>
@@ -3003,8 +3221,11 @@
         <v>269</v>
       </c>
       <c r="H65" s="5"/>
-    </row>
-    <row r="66" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I65" s="10" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>117</v>
       </c>
@@ -3027,8 +3248,11 @@
         <v>270</v>
       </c>
       <c r="H66" s="5"/>
-    </row>
-    <row r="67" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I66" s="10" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>118</v>
       </c>
@@ -3051,8 +3275,11 @@
         <v>271</v>
       </c>
       <c r="H67" s="5"/>
-    </row>
-    <row r="68" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I67" s="10" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>119</v>
       </c>
@@ -3075,8 +3302,11 @@
         <v>286</v>
       </c>
       <c r="H68" s="5"/>
-    </row>
-    <row r="69" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I68" s="10" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>120</v>
       </c>
@@ -3099,8 +3329,11 @@
         <v>272</v>
       </c>
       <c r="H69" s="5"/>
-    </row>
-    <row r="70" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I69" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>121</v>
       </c>
@@ -3123,8 +3356,11 @@
         <v>262</v>
       </c>
       <c r="H70" s="5"/>
-    </row>
-    <row r="71" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I70" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>122</v>
       </c>
@@ -3147,6 +3383,9 @@
         <v>290</v>
       </c>
       <c r="H71" s="5"/>
+      <c r="I71" s="5" t="s">
+        <v>324</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
